--- a/data/trans_camb/P35A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P35A_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,52</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,66</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,41</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,61</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 12,59</t>
+          <t>-1,71; 7,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 15,65</t>
+          <t>0,21; 8,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 14,75</t>
+          <t>-0,51; 12,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 7,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 10,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 17,7</t>
+          <t>-2,29; 2,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 10,07</t>
+          <t>-2,92; 1,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 11,55</t>
+          <t>-3,58; 0,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,94; 13,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 3,71</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,55; 3,98</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 4,53</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>123,73%</t>
+          <t>103,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>155,97%</t>
+          <t>151,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>140,32%</t>
+          <t>189,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>121,33%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>85,54%</t>
+          <t>-23,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>109,72%</t>
+          <t>-58,37%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>134,68%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>65,98%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>79,49%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>76,64%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 511,91</t>
+          <t>-44,08; 624,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 744,38</t>
+          <t>-17,91; 923,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 550,78</t>
+          <t>-23,84; 1080,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-80,58; 461,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-78,53; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,74; 783,65</t>
+          <t>-76,82; 598,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 340,89</t>
+          <t>-88,8; inf</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 333,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,21; 429,48</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-31,85; 335,85</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-25,13; 348,31</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-28,72; 373,67</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,69</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>5,39</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 6,59</t>
+          <t>-2,55; 6,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 8,16</t>
+          <t>-1,65; 6,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 15,67</t>
+          <t>2,51; 13,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 13,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 5,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 13,22</t>
+          <t>-1,11; 4,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 6,67</t>
+          <t>-1,48; 2,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 6,2</t>
+          <t>0,14; 6,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 12,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 4,41</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 4,21</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,61; 8,37</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>30,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>52,85%</t>
+          <t>92,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>52,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>52,29%</t>
+          <t>51,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>98,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>53,86%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>30,62%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>35,04%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>97,49%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 50,8</t>
+          <t>-24,32; 100,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 61,46</t>
+          <t>-16,79; 114,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,79; 122,8</t>
+          <t>19,86; 214,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 196,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,01; 92,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 202,34</t>
+          <t>-32,09; 292,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,89; 58,51</t>
+          <t>-40,85; 187,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,17; 58,25</t>
+          <t>-1,99; 367,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,65; 114,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-9,72; 106,03</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-8,61; 97,14</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>36,01; 201,21</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,76</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4,55</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 4,52</t>
+          <t>-10,38; 3,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 10,95</t>
+          <t>-5,98; 7,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 12,96</t>
+          <t>-5,72; 8,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 8,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 10,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 9,61</t>
+          <t>-2,26; 4,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 4,45</t>
+          <t>-1,88; 4,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 9,32</t>
+          <t>2,69; 11,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 9,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,06; 2,47</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 4,97</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 8,87</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-13,34%</t>
+          <t>-22,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>31,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>44,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>28,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>29,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>29,74%</t>
+          <t>130,98%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-7,95%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>14,93%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>47,32%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,6; 36,79</t>
+          <t>-55,14; 30,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 82,54</t>
+          <t>-32,67; 73,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,09; 95,38</t>
+          <t>-32,86; 80,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,82; 122,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 156,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,32; 125,58</t>
+          <t>-32,65; 135,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-29,16; 40,51</t>
+          <t>-26,61; 134,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 79,72</t>
+          <t>28,04; 304,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 77,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-40,57; 34,2</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-23,95; 65,68</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2,23; 116,59</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,12</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,57</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 4,32</t>
+          <t>-7,84; 1,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 7,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 10,26</t>
+          <t>-0,59; 10,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 7,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 5,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 8,8</t>
+          <t>-1,77; 3,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 4,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 5,85</t>
+          <t>0,57; 6,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,38; 8,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,22; 1,38</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,18; 7,85</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>-27,22%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>38,59%</t>
+          <t>53,72%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>34,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>43,0%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>100,74%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>40,15%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-16,53%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>67,2%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 32,94</t>
+          <t>-59,66; 19,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 61,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,93; 80,55</t>
+          <t>-9,23; 124,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 98,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 79,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 116,79</t>
+          <t>-43,92; 134,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 37,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 52,82</t>
+          <t>10,24; 289,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10,62; 73,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-49,32; 26,03</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>12,68; 142,0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5,17</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,3</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>4,21</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,87; 1,92</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 4,42</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1,92; 8,25</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 2,53</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,77; 2,03</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1,51; 5,07</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 1,56</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,48; 2,83</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>2,36; 5,9</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-7,51%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>19,35%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>52,72%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>28,06%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>18,49%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>95,51%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>2,06%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>19,11%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>64,16%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-31,91; 23,34</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-9,55; 52,14</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>16,7; 95,86</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-14,52; 86,6</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-18,95; 73,8</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>33,93; 180,19</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-20,83; 27,13</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-7,16; 48,1</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>29,61; 99,02</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
